--- a/Build-First-Automation-StudioX/First Automation Using Microsoft Office/Invoices/Invoice 4.xlsx
+++ b/Build-First-Automation-StudioX/First Automation Using Microsoft Office/Invoices/Invoice 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianca.dragu\Documents\03. RPA Starter\2022.10 Build Your First Automation with StudioX\Invoices - Working Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\UiPath-Academy\Build-First-Automation-StudioX\First Automation Using Microsoft Office\Invoices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164EB2EB-5DB7-4726-B4C4-1349AC24F105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0697A0-732F-47EA-ACFC-104C003A342B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{ACCB1FA6-7E67-4590-BB25-A17FCE65C786}"/>
+    <workbookView xWindow="1080" yWindow="2325" windowWidth="15375" windowHeight="7785" xr2:uid="{ACCB1FA6-7E67-4590-BB25-A17FCE65C786}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <t>CLIENT CODE</t>
   </si>
   <si>
-    <t>name, email address</t>
+    <t>Charlie, charlie@mail.com</t>
   </si>
 </sst>
 </file>
@@ -590,53 +590,53 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,9 +664,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -704,7 +704,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -810,7 +810,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -952,7 +952,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -966,29 +966,29 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="4.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="38"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1008,21 +1008,21 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1034,7 +1034,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1042,21 +1042,21 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="35"/>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>24</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>4</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>5</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>25</v>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1128,23 +1128,23 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>26</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>27</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>10</v>
       </c>
@@ -1186,14 +1186,14 @@
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="31">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F18" s="27">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="45" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="50">
+      <c r="E21" s="51"/>
+      <c r="F21" s="42">
         <f>F16+F17-F18</f>
-        <v>8774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>8655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1238,37 +1238,37 @@
         <v>13</v>
       </c>
       <c r="E22" s="46"/>
-      <c r="F22" s="51">
+      <c r="F22" s="43">
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="52">
+      <c r="E23" s="41"/>
+      <c r="F23" s="44">
         <f>F21*F22</f>
-        <v>372.89500000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+        <v>367.83750000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="53">
+      <c r="E24" s="47"/>
+      <c r="F24" s="45">
         <f>F21+F23</f>
-        <v>9146.8950000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>9022.8374999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1276,7 +1276,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1284,7 +1284,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1292,7 +1292,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1300,7 +1300,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1308,7 +1308,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1316,7 +1316,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>29</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1336,14 +1336,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{3973258D-70B0-4F2B-9A52-AA2F46F0125B}">
